--- a/medicine/Mort/Cimetière_Sainte-Marie_(Le_Havre)/Cimetière_Sainte-Marie_(Le_Havre).xlsx
+++ b/medicine/Mort/Cimetière_Sainte-Marie_(Le_Havre)/Cimetière_Sainte-Marie_(Le_Havre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sainte-Marie_(Le_Havre)</t>
+          <t>Cimetière_Sainte-Marie_(Le_Havre)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Sainte-Marie est le plus grand cimetière de la ville du Havre en Seine-Maritime. Il s'étend sur quelque 28 hectares[1] en ville haute, le long de la rue du 329e R.I. Son entrée principale se trouve 2 rue Eugène Landoas. Il a été aménagé en 1851 pour succéder au cimetière Saint-Roch devenu trop petit[1]. La partie la plus ancienne se trouve à l'est du cimetière[1]; il a été agrandi à plusieurs reprises entre 1875 et 1915. Cimetière monumental et paysager, il compte de nombreuses statues et mausolées sculptés. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Sainte-Marie est le plus grand cimetière de la ville du Havre en Seine-Maritime. Il s'étend sur quelque 28 hectares en ville haute, le long de la rue du 329e R.I. Son entrée principale se trouve 2 rue Eugène Landoas. Il a été aménagé en 1851 pour succéder au cimetière Saint-Roch devenu trop petit. La partie la plus ancienne se trouve à l'est du cimetière; il a été agrandi à plusieurs reprises entre 1875 et 1915. Cimetière monumental et paysager, il compte de nombreuses statues et mausolées sculptés. 
 Il comprend également des carrés militaires français, belge, anglais et allemand de la Première Guerre mondiale, ainsi qu'un carré militaire anglais de la Seconde Guerre mondiale. Des victimes civiles des bombardements alliés qu'a subis la ville du Havre sont également enterrées sous des stèles militaires françaises.
-Situé dans Le Havre Centre Est, il se trouve dans le quartier Sainte-Marie[2].
+Situé dans Le Havre Centre Est, il se trouve dans le quartier Sainte-Marie.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sainte-Marie_(Le_Havre)</t>
+          <t>Cimetière_Sainte-Marie_(Le_Havre)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,15 @@
           <t>Monuments</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Monument aux naufragés du paquebot La Bourgogne
 Monument aux sauveteurs
 Monument à Octave Crémazie
 Monument du Souvenir français
-Monument aux morts de la Guerre franco-allemande de 1870[3]
+Monument aux morts de la Guerre franco-allemande de 1870
 Chapelle construite par Émile Platel en 1861 : elle est actuellement[Quand ?] en cours de restauration. Elle a un plan en croix grecque et un lanternon en briques.</t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sainte-Marie_(Le_Havre)</t>
+          <t>Cimetière_Sainte-Marie_(Le_Havre)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Général Louis Archinard (1850-1932), qui contribua à la conquête coloniale de l’Afrique occidentale par la France, pacificateur du Soudan français (actuel Mali) entre 1880 et 1893.
 Gustave Brindeau
